--- a/medicine/Sexualité et sexologie/Pince_à_sein/Pince_à_sein.xlsx
+++ b/medicine/Sexualité et sexologie/Pince_à_sein/Pince_à_sein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pince_%C3%A0_sein</t>
+          <t>Pince_à_sein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pince à sein est un sex-toy utilisé pour stimuler les tétons en y appliquant une pression plus ou moins importante.
 Son effet principal est de restreindre la circulation du sang dans les tétons.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pince_%C3%A0_sein</t>
+          <t>Pince_à_sein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Usage et matière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne s'agit plus de parure, mais d'accessoires sexuels apparentés aux pratiques BDSM. Le but est d'appliquer une pression plus ou moins forte, et plus ou moins contrôlée, aux mamelons, créant une stimulation pouvant aller d'un doux serrage jusqu'à la douleur la plus vive. Diverses matières plastiques ou métalliques. Elles sont souvent revêtues d'un enrobage plastifié ou caoutchouté aux extrémités, mais il en existe avec des dents crantées, à réserver aux vrais adeptes du SM.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pince_%C3%A0_sein</t>
+          <t>Pince_à_sein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Façon « pinces croco », ou « pinces médicales » (ressemblant vaguement à des ciseaux) et leurs dérivés.
 On trouve des pinces classiques simples dont la force du ressort sera choisie en fonction de l'intensité voulue. Certaines peuvent blesser si de trop mauvaise qualité ou si choisies dans une gamme volontairement SM[réf. nécessaire].
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pince_%C3%A0_sein</t>
+          <t>Pince_à_sein</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Objets domestiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">S'il existe de nombreux modèles de pinces en vente dans les magasins spécialisés, un certain nombre d'objets domestiques sont susceptibles de remplir ce rôle : pinces à linges, pinces à torchons, pinces à dessins, cintres à pinces. Toutefois l'absence de rembourrage plastifié réserve les objets domestiques à des joueurs expérimentés qui savent gérer la douleur. Attention également aux potentielles échardes si la pince est en bois.
 </t>
